--- a/最小blk - 副本.xlsx
+++ b/最小blk - 副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\llieshan\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9D4CB-FF20-493D-B4DA-AFF1CCF1FF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A4E91-8908-473F-BB63-EABF0AC7508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20544" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q=128&amp;time" sheetId="1" r:id="rId1"/>
@@ -141,6 +141,682 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>运行时间随维数变化曲线</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'q=128&amp;time'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'q=128&amp;time'!$O$2:$O$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1.6203721364339192E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8562545776367188E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.225471496582031E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8644332885742188E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9923845926920572E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1974245707194004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2385190327962238E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.45309575398763E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8224131266276043E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7315826416015625E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8651974995930993E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8546346028645848E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4188289642333984E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9774436950683598E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2555192311604819E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7245680491129556E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6448637644449868E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2427380879720049E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9140453338623047E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2385400136311846E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3428948720296221E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0945491790771484E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7664197285970058E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2373129526774091E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5325705210367838E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7079989115397137E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0041465759277344E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2142092386881512E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5118182500203453E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0364831288655598E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6080738703409828E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.9949398040771484E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9637775421142578E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.2948993047078446E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6585998535156264E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3948443730672196E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17053659756978354</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14616584777832031</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18105228741963705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21704983711242676</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25580668449401855</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29037006696065265</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28975566228230792</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.37211306889851886</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42879947026570636</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43011371294657391</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46032389005025226</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46887898445129395</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69106364250183105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69365485509236657</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.73016349474589026</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.84021059672037757</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.97990123430887854</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0923361778259277</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2021172046661377</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.80384922027587902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4828084309895833</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5977067947387695</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9401880105336506</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5751143296559651</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0387124220530191</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2251516977945962</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2149168650309243</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4493251641591391</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2175287405649819</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2421366373697915</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.27638840675354</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.9895478089650473</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3809611797332764</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.5472791194915771</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.9805973370869951</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.5383241176605225</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.2077025572458906</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.9010547002156573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.7494103908538818</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.435014883677165</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.1726311842600499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.6448373794555664</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1391545931498204</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.3418527444203692</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.5438997745513934</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.2831958134969081</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10.360472838083902</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.646306673685711</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36.995373328526817</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47.875147263209023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96.681906859079973</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>117.79677319526672</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>126.56401348114009</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>122.76975338541665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-694B-4162-866C-908B64B0641D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1921265840"/>
+        <c:axId val="1921266800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1921265840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>维数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921266800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1921266800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921265840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -716,7 +1392,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AD476B-280D-EE82-093A-4D491D89C26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1022,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4681,6 +5954,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
